--- a/src/test/resources/data/GiftCardData.xlsx
+++ b/src/test/resources/data/GiftCardData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
   <si>
     <t>TestCases</t>
   </si>
@@ -149,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -164,6 +164,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -550,7 +556,7 @@
       <c r="F2" s="6">
         <v>9087654321</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="59" t="s">
         <v>15</v>
       </c>
     </row>
@@ -573,7 +579,7 @@
       <c r="F3" s="6">
         <v>67436778</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="60" t="s">
         <v>15</v>
       </c>
     </row>
@@ -596,7 +602,7 @@
       <c r="F4" s="6">
         <v>9087654321</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="61" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/test/resources/data/GiftCardData.xlsx
+++ b/src/test/resources/data/GiftCardData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="17">
   <si>
     <t>TestCases</t>
   </si>
@@ -149,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -164,6 +164,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -556,7 +562,7 @@
       <c r="F2" s="6">
         <v>9087654321</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="65" t="s">
         <v>15</v>
       </c>
     </row>
@@ -579,7 +585,7 @@
       <c r="F3" s="6">
         <v>67436778</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="66" t="s">
         <v>15</v>
       </c>
     </row>
@@ -602,7 +608,7 @@
       <c r="F4" s="6">
         <v>9087654321</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="67" t="s">
         <v>16</v>
       </c>
     </row>
